--- a/Norm_dat_SEM_WT_DH.xlsx
+++ b/Norm_dat_SEM_WT_DH.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,71 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="22" documentId="11_EFC9F2D3451AD734F7A62027C8873778710449E2" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{791A5757-F50C-B140-AEF6-5EE4628B671F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
   <si>
     <t>D1</t>
   </si>
@@ -58,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -66,12 +120,18 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,32 +448,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="O2" sqref="O2:O62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
+    <col min="7" max="7" width="14.6640625" customWidth="true"/>
+    <col min="8" max="8" width="15.6640625" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+    <row r="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -422,24 +490,24 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>4.8268756143667303E-2</v>
-      </c>
-      <c r="B2">
-        <v>1.4822512875094004E-3</v>
-      </c>
-      <c r="C2">
-        <v>529</v>
-      </c>
-      <c r="D2">
-        <v>4.1772960302457467E-2</v>
-      </c>
-      <c r="E2">
-        <v>1.197257260943584E-3</v>
-      </c>
-      <c r="F2">
-        <v>529</v>
+    <row r="2" x14ac:dyDescent="0.2">
+      <c r="A2" s="0">
+        <v>0.048268756143667303</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.0014822512875094004</v>
+      </c>
+      <c r="C2" s="0">
+        <v>0.041772960302457467</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.001197257260943584</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.04014554820415879</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.0011080941921755138</v>
       </c>
       <c r="G2">
         <v>4.014554820415879E-2</v>
@@ -460,24 +528,24 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4.6935593572778836E-2</v>
-      </c>
-      <c r="B3">
-        <v>1.4518106505192446E-3</v>
-      </c>
-      <c r="C3">
-        <v>529</v>
-      </c>
-      <c r="D3">
-        <v>4.0855599243856337E-2</v>
-      </c>
-      <c r="E3">
-        <v>1.1932654258979707E-3</v>
-      </c>
-      <c r="F3">
-        <v>529</v>
+    <row r="3" x14ac:dyDescent="0.2">
+      <c r="A3" s="0">
+        <v>0.046935593572778836</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.0014518106505192446</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.040855599243856337</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.0011932654258979707</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.039542024574669189</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.0012381136793279852</v>
       </c>
       <c r="G3">
         <v>3.9542024574669189E-2</v>
@@ -498,24 +566,24 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4.7371226843100189E-2</v>
-      </c>
-      <c r="B4">
-        <v>1.4392468305717409E-3</v>
-      </c>
-      <c r="C4">
-        <v>529</v>
-      </c>
-      <c r="D4">
-        <v>4.1082103969754251E-2</v>
-      </c>
-      <c r="E4">
-        <v>1.1934734307207939E-3</v>
-      </c>
-      <c r="F4">
-        <v>529</v>
+    <row r="4" x14ac:dyDescent="0.2">
+      <c r="A4" s="0">
+        <v>0.047371226843100189</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.0014392468305717409</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.041082103969754251</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.0011934734307207939</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.039069493383742902</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.0011357403780608757</v>
       </c>
       <c r="G4">
         <v>3.9069493383742902E-2</v>
@@ -536,24 +604,24 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4.8244570888468792E-2</v>
-      </c>
-      <c r="B5">
-        <v>1.3905011187210698E-3</v>
-      </c>
-      <c r="C5">
-        <v>529</v>
-      </c>
-      <c r="D5">
-        <v>4.2257869565217397E-2</v>
-      </c>
-      <c r="E5">
-        <v>1.2415764407600009E-3</v>
-      </c>
-      <c r="F5">
-        <v>529</v>
+    <row r="5" x14ac:dyDescent="0.2">
+      <c r="A5" s="0">
+        <v>0.048244570888468792</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0.0013905011187210698</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.042257869565217397</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.0012415764407600009</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.039313198487712669</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.0011316556354938106</v>
       </c>
       <c r="G5">
         <v>3.9313198487712669E-2</v>
@@ -574,24 +642,24 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4.8439404536862005E-2</v>
-      </c>
-      <c r="B6">
-        <v>1.3524409308301759E-3</v>
-      </c>
-      <c r="C6">
-        <v>529</v>
-      </c>
-      <c r="D6">
-        <v>4.490623629489604E-2</v>
-      </c>
-      <c r="E6">
-        <v>1.2941937439122488E-3</v>
-      </c>
-      <c r="F6">
-        <v>529</v>
+    <row r="6" x14ac:dyDescent="0.2">
+      <c r="A6" s="0">
+        <v>0.048439404536862005</v>
+      </c>
+      <c r="B6" s="0">
+        <v>0.0013524409308301759</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.04490623629489604</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.0012941937439122488</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.038160795841209828</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.0010634051317351813</v>
       </c>
       <c r="G6">
         <v>3.8160795841209828E-2</v>
@@ -612,24 +680,24 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4.7100274102079391E-2</v>
-      </c>
-      <c r="B7">
-        <v>1.2987589991610834E-3</v>
-      </c>
-      <c r="C7">
-        <v>529</v>
-      </c>
-      <c r="D7">
-        <v>4.1564597353497157E-2</v>
-      </c>
-      <c r="E7">
-        <v>1.2143632232004282E-3</v>
-      </c>
-      <c r="F7">
-        <v>529</v>
+    <row r="7" x14ac:dyDescent="0.2">
+      <c r="A7" s="0">
+        <v>0.047100274102079391</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.0012987589991610834</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.041564597353497157</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.0012143632232004282</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.040322896030245747</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.0012023768984107122</v>
       </c>
       <c r="G7">
         <v>4.0322896030245747E-2</v>
@@ -650,24 +718,24 @@
         <v>275</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4.6758130434782608E-2</v>
-      </c>
-      <c r="B8">
-        <v>1.363158143578977E-3</v>
-      </c>
-      <c r="C8">
-        <v>529</v>
-      </c>
-      <c r="D8">
-        <v>4.2535243856332713E-2</v>
-      </c>
-      <c r="E8">
-        <v>1.1597876812865352E-3</v>
-      </c>
-      <c r="F8">
-        <v>529</v>
+    <row r="8" x14ac:dyDescent="0.2">
+      <c r="A8" s="0">
+        <v>0.046758130434782608</v>
+      </c>
+      <c r="B8" s="0">
+        <v>0.001363158143578977</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.042535243856332713</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.0011597876812865352</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.038263058601134228</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.0011007185096117182</v>
       </c>
       <c r="G8">
         <v>3.8263058601134228E-2</v>
@@ -688,24 +756,24 @@
         <v>276</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>4.6471510396975418E-2</v>
-      </c>
-      <c r="B9">
-        <v>1.3076542228712023E-3</v>
-      </c>
-      <c r="C9">
-        <v>529</v>
-      </c>
-      <c r="D9">
-        <v>4.0484716446124766E-2</v>
-      </c>
-      <c r="E9">
-        <v>1.0908844822527489E-3</v>
-      </c>
-      <c r="F9">
-        <v>529</v>
+    <row r="9" x14ac:dyDescent="0.2">
+      <c r="A9" s="0">
+        <v>0.046471510396975418</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.0013076542228712023</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.040484716446124766</v>
+      </c>
+      <c r="D9" s="0">
+        <v>0.0010908844822527489</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.03618817013232515</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.0010701942495442748</v>
       </c>
       <c r="G9">
         <v>3.618817013232515E-2</v>
@@ -726,24 +794,24 @@
         <v>277</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4.4600646502835538E-2</v>
-      </c>
-      <c r="B10">
-        <v>1.2278202851801374E-3</v>
-      </c>
-      <c r="C10">
-        <v>529</v>
-      </c>
-      <c r="D10">
-        <v>4.1386047258979194E-2</v>
-      </c>
-      <c r="E10">
-        <v>1.2419465020687874E-3</v>
-      </c>
-      <c r="F10">
-        <v>529</v>
+    <row r="10" x14ac:dyDescent="0.2">
+      <c r="A10" s="0">
+        <v>0.044600646502835538</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.0012278202851801374</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.041386047258979194</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.0012419465020687874</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.034616546313799609</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.000996356306439709</v>
       </c>
       <c r="G10">
         <v>3.4616546313799609E-2</v>
@@ -764,24 +832,24 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4.371795652173914E-2</v>
-      </c>
-      <c r="B11">
-        <v>1.2014910842096812E-3</v>
-      </c>
-      <c r="C11">
-        <v>529</v>
-      </c>
-      <c r="D11">
-        <v>3.8488841209829872E-2</v>
-      </c>
-      <c r="E11">
-        <v>1.1138114136409038E-3</v>
-      </c>
-      <c r="F11">
-        <v>529</v>
+    <row r="11" x14ac:dyDescent="0.2">
+      <c r="A11" s="0">
+        <v>0.04371795652173914</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.0012014910842096812</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.038488841209829872</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.0011138114136409038</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.03760043289224952</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.0011652792827180028</v>
       </c>
       <c r="G11">
         <v>3.760043289224952E-2</v>
@@ -802,24 +870,24 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>4.0926357277882797E-2</v>
-      </c>
-      <c r="B12">
-        <v>1.1011667695164202E-3</v>
-      </c>
-      <c r="C12">
-        <v>529</v>
-      </c>
-      <c r="D12">
-        <v>3.7422678638941401E-2</v>
-      </c>
-      <c r="E12">
-        <v>1.0490850469459224E-3</v>
-      </c>
-      <c r="F12">
-        <v>529</v>
+    <row r="12" x14ac:dyDescent="0.2">
+      <c r="A12" s="0">
+        <v>0.040926357277882797</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.0011011667695164202</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.037422678638941401</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.0010490850469459224</v>
+      </c>
+      <c r="E12" s="0">
+        <v>0.03637590548204158</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.0010025274140995145</v>
       </c>
       <c r="G12">
         <v>3.637590548204158E-2</v>
@@ -840,24 +908,24 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4.2489281663516065E-2</v>
-      </c>
-      <c r="B13">
-        <v>1.1972220752745695E-3</v>
-      </c>
-      <c r="C13">
-        <v>529</v>
-      </c>
-      <c r="D13">
-        <v>3.5615243856332697E-2</v>
-      </c>
-      <c r="E13">
-        <v>1.0003955170700117E-3</v>
-      </c>
-      <c r="F13">
-        <v>529</v>
+    <row r="13" x14ac:dyDescent="0.2">
+      <c r="A13" s="0">
+        <v>0.042489281663516065</v>
+      </c>
+      <c r="B13" s="0">
+        <v>0.0011972220752745695</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.035615243856332697</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.0010003955170700117</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.034916170132325147</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.00095962056749861462</v>
       </c>
       <c r="G13">
         <v>3.4916170132325147E-2</v>
@@ -878,24 +946,24 @@
         <v>281</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3.9896786389414005E-2</v>
-      </c>
-      <c r="B14">
-        <v>1.0803626961893738E-3</v>
-      </c>
-      <c r="C14">
-        <v>529</v>
-      </c>
-      <c r="D14">
-        <v>3.6644311909262747E-2</v>
-      </c>
-      <c r="E14">
-        <v>9.8489499733421092E-4</v>
-      </c>
-      <c r="F14">
-        <v>529</v>
+    <row r="14" x14ac:dyDescent="0.2">
+      <c r="A14" s="0">
+        <v>0.039896786389414005</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.0010803626961893738</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.036644311909262747</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.00098489499733421092</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.033786788279773168</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00095489603628406245</v>
       </c>
       <c r="G14">
         <v>3.3786788279773168E-2</v>
@@ -916,24 +984,24 @@
         <v>282</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3.9599506616257087E-2</v>
-      </c>
-      <c r="B15">
-        <v>1.0322421986218339E-3</v>
-      </c>
-      <c r="C15">
-        <v>529</v>
-      </c>
-      <c r="D15">
-        <v>3.4510470699432895E-2</v>
-      </c>
-      <c r="E15">
-        <v>9.6157607261961725E-4</v>
-      </c>
-      <c r="F15">
-        <v>529</v>
+    <row r="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="0">
+        <v>0.039599506616257087</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.0010322421986218339</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.034510470699432895</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.00096157607261961725</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.031782982986767488</v>
+      </c>
+      <c r="F15" s="0">
+        <v>0.00090182850782893442</v>
       </c>
       <c r="G15">
         <v>3.1782982986767488E-2</v>
@@ -954,24 +1022,24 @@
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3.6322376181474471E-2</v>
-      </c>
-      <c r="B16">
-        <v>9.2834696017808323E-4</v>
-      </c>
-      <c r="C16">
-        <v>529</v>
-      </c>
-      <c r="D16">
-        <v>3.3176990548204166E-2</v>
-      </c>
-      <c r="E16">
-        <v>8.8816368896522631E-4</v>
-      </c>
-      <c r="F16">
-        <v>529</v>
+    <row r="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="0">
+        <v>0.036322376181474471</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.00092834696017808323</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.033176990548204166</v>
+      </c>
+      <c r="D16" s="0">
+        <v>0.00088816368896522631</v>
+      </c>
+      <c r="E16" s="0">
+        <v>0.031585385633270326</v>
+      </c>
+      <c r="F16" s="0">
+        <v>0.0008865498666935761</v>
       </c>
       <c r="G16">
         <v>3.1585385633270326E-2</v>
@@ -992,24 +1060,24 @@
         <v>284</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3.3973128544423449E-2</v>
-      </c>
-      <c r="B17">
-        <v>9.5280020539923013E-4</v>
-      </c>
-      <c r="C17">
-        <v>529</v>
-      </c>
-      <c r="D17">
-        <v>3.0138682419659737E-2</v>
-      </c>
-      <c r="E17">
-        <v>8.0167223491797463E-4</v>
-      </c>
-      <c r="F17">
-        <v>529</v>
+    <row r="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="0">
+        <v>0.033973128544423449</v>
+      </c>
+      <c r="B17" s="0">
+        <v>0.00095280020539923013</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.030138682419659737</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.00080167223491797463</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.029486274102079386</v>
+      </c>
+      <c r="F17" s="0">
+        <v>0.0007852955835336218</v>
       </c>
       <c r="G17">
         <v>2.9486274102079386E-2</v>
@@ -1030,24 +1098,24 @@
         <v>285</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3.4999986767485815E-2</v>
-      </c>
-      <c r="B18">
-        <v>1.003635355364197E-3</v>
-      </c>
-      <c r="C18">
-        <v>529</v>
-      </c>
-      <c r="D18">
-        <v>3.1749920604914939E-2</v>
-      </c>
-      <c r="E18">
-        <v>9.3462454215699692E-4</v>
-      </c>
-      <c r="F18">
-        <v>529</v>
+    <row r="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="0">
+        <v>0.034999986767485815</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.001003635355364197</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.031749920604914939</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.00093462454215699692</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.029845260869565224</v>
+      </c>
+      <c r="F18" s="0">
+        <v>0.00083107326222486757</v>
       </c>
       <c r="G18">
         <v>2.9845260869565224E-2</v>
@@ -1068,24 +1136,24 @@
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3.1842266540642726E-2</v>
-      </c>
-      <c r="B19">
-        <v>8.5086496792264427E-4</v>
-      </c>
-      <c r="C19">
-        <v>529</v>
-      </c>
-      <c r="D19">
-        <v>2.9993516068052929E-2</v>
-      </c>
-      <c r="E19">
-        <v>7.7660007202263407E-4</v>
-      </c>
-      <c r="F19">
-        <v>529</v>
+    <row r="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="0">
+        <v>0.031842266540642726</v>
+      </c>
+      <c r="B19" s="0">
+        <v>0.00085086496792264427</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.029993516068052929</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.00077660007202263407</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.027328190926275989</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.00080175358789995289</v>
       </c>
       <c r="G19">
         <v>2.7328190926275989E-2</v>
@@ -1106,24 +1174,24 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2.9168672967863893E-2</v>
-      </c>
-      <c r="B20">
-        <v>8.2624573626717665E-4</v>
-      </c>
-      <c r="C20">
-        <v>529</v>
-      </c>
-      <c r="D20">
-        <v>2.7609287334593571E-2</v>
-      </c>
-      <c r="E20">
-        <v>7.3748901728662713E-4</v>
-      </c>
-      <c r="F20">
-        <v>529</v>
+    <row r="20" x14ac:dyDescent="0.2">
+      <c r="A20" s="0">
+        <v>0.029168672967863893</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.00082624573626717665</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.027609287334593571</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.00073748901728662713</v>
+      </c>
+      <c r="E20" s="0">
+        <v>0.028174408317580345</v>
+      </c>
+      <c r="F20" s="0">
+        <v>0.00071198583332284144</v>
       </c>
       <c r="G20">
         <v>2.8174408317580345E-2</v>
@@ -1144,24 +1212,24 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2.7016618147448015E-2</v>
-      </c>
-      <c r="B21">
-        <v>7.2181807418944771E-4</v>
-      </c>
-      <c r="C21">
-        <v>529</v>
-      </c>
-      <c r="D21">
-        <v>2.6255871455576552E-2</v>
-      </c>
-      <c r="E21">
-        <v>6.6539480132770789E-4</v>
-      </c>
-      <c r="F21">
-        <v>529</v>
+    <row r="21" x14ac:dyDescent="0.2">
+      <c r="A21" s="0">
+        <v>0.027016618147448015</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.00072181807418944771</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.026255871455576552</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.00066539480132770789</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.024724922495274103</v>
+      </c>
+      <c r="F21" s="0">
+        <v>0.00066762545982810932</v>
       </c>
       <c r="G21">
         <v>2.4724922495274103E-2</v>
@@ -1182,24 +1250,24 @@
         <v>289</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2.8572213610586018E-2</v>
-      </c>
-      <c r="B22">
-        <v>8.0376922396706925E-4</v>
-      </c>
-      <c r="C22">
-        <v>529</v>
-      </c>
-      <c r="D22">
-        <v>2.6442126654064275E-2</v>
-      </c>
-      <c r="E22">
-        <v>7.4882408687965303E-4</v>
-      </c>
-      <c r="F22">
-        <v>529</v>
+    <row r="22" x14ac:dyDescent="0.2">
+      <c r="A22" s="0">
+        <v>0.028572213610586018</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.00080376922396706925</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.026442126654064275</v>
+      </c>
+      <c r="D22" s="0">
+        <v>0.00074882408687965303</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.025576206049149341</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.00075969785219723144</v>
       </c>
       <c r="G22">
         <v>2.5576206049149341E-2</v>
@@ -1220,24 +1288,24 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2.7292943289224946E-2</v>
-      </c>
-      <c r="B23">
-        <v>7.5077378340784721E-4</v>
-      </c>
-      <c r="C23">
-        <v>529</v>
-      </c>
-      <c r="D23">
-        <v>2.5392321361058599E-2</v>
-      </c>
-      <c r="E23">
-        <v>7.5006232660812175E-4</v>
-      </c>
-      <c r="F23">
-        <v>529</v>
+    <row r="23" x14ac:dyDescent="0.2">
+      <c r="A23" s="0">
+        <v>0.027292943289224946</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.00075077378340784721</v>
+      </c>
+      <c r="C23" s="0">
+        <v>0.025392321361058599</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.00075006232660812175</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.024427867674858224</v>
+      </c>
+      <c r="F23" s="0">
+        <v>0.00063529321744700126</v>
       </c>
       <c r="G23">
         <v>2.4427867674858224E-2</v>
@@ -1258,24 +1326,24 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>2.5353332703213615E-2</v>
-      </c>
-      <c r="B24">
-        <v>6.2838053871278065E-4</v>
-      </c>
-      <c r="C24">
-        <v>529</v>
-      </c>
-      <c r="D24">
-        <v>2.3257519848771262E-2</v>
-      </c>
-      <c r="E24">
-        <v>6.2821192366029055E-4</v>
-      </c>
-      <c r="F24">
-        <v>529</v>
+    <row r="24" x14ac:dyDescent="0.2">
+      <c r="A24" s="0">
+        <v>0.025353332703213615</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.00062838053871278065</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.023257519848771262</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.00062821192366029055</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.02208970888468809</v>
+      </c>
+      <c r="F24" s="0">
+        <v>0.00060842532935901511</v>
       </c>
       <c r="G24">
         <v>2.208970888468809E-2</v>
@@ -1296,24 +1364,24 @@
         <v>292</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>2.351564839319471E-2</v>
-      </c>
-      <c r="B25">
-        <v>5.9887731380131907E-4</v>
-      </c>
-      <c r="C25">
-        <v>529</v>
-      </c>
-      <c r="D25">
-        <v>2.0719230623818523E-2</v>
-      </c>
-      <c r="E25">
-        <v>5.3841263382969397E-4</v>
-      </c>
-      <c r="F25">
-        <v>529</v>
+    <row r="25" x14ac:dyDescent="0.2">
+      <c r="A25" s="0">
+        <v>0.02351564839319471</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.00059887731380131907</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.020719230623818523</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.00053841263382969397</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.020721077504725897</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.00050389776427696442</v>
       </c>
       <c r="G25">
         <v>2.0721077504725897E-2</v>
@@ -1334,24 +1402,24 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>2.0616200378071832E-2</v>
-      </c>
-      <c r="B26">
-        <v>5.4450679447890112E-4</v>
-      </c>
-      <c r="C26">
-        <v>529</v>
-      </c>
-      <c r="D26">
-        <v>2.2057255198487721E-2</v>
-      </c>
-      <c r="E26">
-        <v>6.3608195643946477E-4</v>
-      </c>
-      <c r="F26">
-        <v>529</v>
+    <row r="26" x14ac:dyDescent="0.2">
+      <c r="A26" s="0">
+        <v>0.020616200378071832</v>
+      </c>
+      <c r="B26" s="0">
+        <v>0.00054450679447890112</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.022057255198487721</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.00063608195643946477</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.023894243856332705</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.00068322653117568178</v>
       </c>
       <c r="G26">
         <v>2.3894243856332705E-2</v>
@@ -1372,24 +1440,24 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>2.140575803402647E-2</v>
-      </c>
-      <c r="B27">
-        <v>5.7937635136261852E-4</v>
-      </c>
-      <c r="C27">
-        <v>529</v>
-      </c>
-      <c r="D27">
-        <v>2.1000835538752365E-2</v>
-      </c>
-      <c r="E27">
-        <v>6.1114616336318487E-4</v>
-      </c>
-      <c r="F27">
-        <v>529</v>
+    <row r="27" x14ac:dyDescent="0.2">
+      <c r="A27" s="0">
+        <v>0.02140575803402647</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.00057937635136261852</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.021000835538752365</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.00061114616336318487</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.019677775047258979</v>
+      </c>
+      <c r="F27" s="0">
+        <v>0.00053928367797124793</v>
       </c>
       <c r="G27">
         <v>1.9677775047258979E-2</v>
@@ -1410,24 +1478,24 @@
         <v>295</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>2.0275620037807182E-2</v>
-      </c>
-      <c r="B28">
-        <v>5.201758303277781E-4</v>
-      </c>
-      <c r="C28">
-        <v>529</v>
-      </c>
-      <c r="D28">
-        <v>1.9134425330812856E-2</v>
-      </c>
-      <c r="E28">
-        <v>5.0149175784329296E-4</v>
-      </c>
-      <c r="F28">
-        <v>529</v>
+    <row r="28" x14ac:dyDescent="0.2">
+      <c r="A28" s="0">
+        <v>0.020275620037807182</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.0005201758303277781</v>
+      </c>
+      <c r="C28" s="0">
+        <v>0.019134425330812856</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.00050149175784329296</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.0183293988657845</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.00044259495538680985</v>
       </c>
       <c r="G28">
         <v>1.83293988657845E-2</v>
@@ -1448,24 +1516,24 @@
         <v>296</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1.9422827977315694E-2</v>
-      </c>
-      <c r="B29">
-        <v>4.7991125309495967E-4</v>
-      </c>
-      <c r="C29">
-        <v>529</v>
-      </c>
-      <c r="D29">
-        <v>1.8042843100189034E-2</v>
-      </c>
-      <c r="E29">
-        <v>4.5290044238594662E-4</v>
-      </c>
-      <c r="F29">
-        <v>529</v>
+    <row r="29" x14ac:dyDescent="0.2">
+      <c r="A29" s="0">
+        <v>0.019422827977315694</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.00047991125309495967</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0.018042843100189034</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.00045290044238594662</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.018821028355387528</v>
+      </c>
+      <c r="F29" s="0">
+        <v>0.00051651120670774379</v>
       </c>
       <c r="G29">
         <v>1.8821028355387528E-2</v>
@@ -1486,24 +1554,24 @@
         <v>297</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1.6511901701323255E-2</v>
-      </c>
-      <c r="B30">
-        <v>4.2544199172345513E-4</v>
-      </c>
-      <c r="C30">
-        <v>529</v>
-      </c>
-      <c r="D30">
-        <v>1.744129489603025E-2</v>
-      </c>
-      <c r="E30">
-        <v>5.0416246620054405E-4</v>
-      </c>
-      <c r="F30">
-        <v>529</v>
+    <row r="30" x14ac:dyDescent="0.2">
+      <c r="A30" s="0">
+        <v>0.016511901701323255</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.00042544199172345513</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.01744129489603025</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.00050416246620054405</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.016813434782608692</v>
+      </c>
+      <c r="F30" s="0">
+        <v>0.00047392604191146475</v>
       </c>
       <c r="G30">
         <v>1.6813434782608692E-2</v>
@@ -1524,24 +1592,24 @@
         <v>298</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1.7383875236294893E-2</v>
-      </c>
-      <c r="B31">
-        <v>4.5603702242664291E-4</v>
-      </c>
-      <c r="C31">
-        <v>529</v>
-      </c>
-      <c r="D31">
-        <v>1.5985523629489597E-2</v>
-      </c>
-      <c r="E31">
-        <v>4.2205056559670645E-4</v>
-      </c>
-      <c r="F31">
-        <v>529</v>
+    <row r="31" x14ac:dyDescent="0.2">
+      <c r="A31" s="0">
+        <v>0.017383875236294893</v>
+      </c>
+      <c r="B31" s="0">
+        <v>0.00045603702242664291</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0.015985523629489597</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.00042205056559670645</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.01641913610586012</v>
+      </c>
+      <c r="F31" s="0">
+        <v>0.00045237213933997292</v>
       </c>
       <c r="G31">
         <v>1.641913610586012E-2</v>
@@ -1562,24 +1630,24 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1.6779604914933837E-2</v>
-      </c>
-      <c r="B32">
-        <v>5.5602304330528395E-4</v>
-      </c>
-      <c r="C32">
-        <v>529</v>
-      </c>
-      <c r="D32">
-        <v>1.5202672967863894E-2</v>
-      </c>
-      <c r="E32">
-        <v>4.2112982346061199E-4</v>
-      </c>
-      <c r="F32">
-        <v>529</v>
+    <row r="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="0">
+        <v>0.016779604914933837</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.00055602304330528395</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.015202672967863894</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.00042112982346061199</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.01483184499054821</v>
+      </c>
+      <c r="F32" s="0">
+        <v>0.00036823729411780763</v>
       </c>
       <c r="G32">
         <v>1.483184499054821E-2</v>
@@ -1600,24 +1668,24 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>1.5508548204158795E-2</v>
-      </c>
-      <c r="B33">
-        <v>3.9231054597540387E-4</v>
-      </c>
-      <c r="C33">
-        <v>529</v>
-      </c>
-      <c r="D33">
-        <v>1.4618937618147447E-2</v>
-      </c>
-      <c r="E33">
-        <v>3.3771302685349535E-4</v>
-      </c>
-      <c r="F33">
-        <v>529</v>
+    <row r="33" x14ac:dyDescent="0.2">
+      <c r="A33" s="0">
+        <v>0.015508548204158795</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.00039231054597540387</v>
+      </c>
+      <c r="C33" s="0">
+        <v>0.014618937618147447</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.00033771302685349535</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.0160076011342155</v>
+      </c>
+      <c r="F33" s="0">
+        <v>0.00049724410005487247</v>
       </c>
       <c r="G33">
         <v>1.60076011342155E-2</v>
@@ -1638,24 +1706,24 @@
         <v>301</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>1.421389224952741E-2</v>
-      </c>
-      <c r="B34">
-        <v>3.7831010964992068E-4</v>
-      </c>
-      <c r="C34">
-        <v>529</v>
-      </c>
-      <c r="D34">
-        <v>1.4129349716446124E-2</v>
-      </c>
-      <c r="E34">
-        <v>4.0380643669897401E-4</v>
-      </c>
-      <c r="F34">
-        <v>529</v>
+    <row r="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="0">
+        <v>0.01421389224952741</v>
+      </c>
+      <c r="B34" s="0">
+        <v>0.00037831010964992068</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.014129349716446124</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.00040380643669897401</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.013998211720226843</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.00038852159703651719</v>
       </c>
       <c r="G34">
         <v>1.3998211720226843E-2</v>
@@ -1676,24 +1744,24 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1.2896871455576563E-2</v>
-      </c>
-      <c r="B35">
-        <v>3.2711863742427937E-4</v>
-      </c>
-      <c r="C35">
-        <v>529</v>
-      </c>
-      <c r="D35">
-        <v>1.5259009451795844E-2</v>
-      </c>
-      <c r="E35">
-        <v>3.4459715621807356E-4</v>
-      </c>
-      <c r="F35">
-        <v>529</v>
+    <row r="35" x14ac:dyDescent="0.2">
+      <c r="A35" s="0">
+        <v>0.012896871455576563</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.00032711863742427937</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0.015259009451795844</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.00034459715621807356</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.013213137996219282</v>
+      </c>
+      <c r="F35" s="0">
+        <v>0.00035428188049261758</v>
       </c>
       <c r="G35">
         <v>1.3213137996219282E-2</v>
@@ -1714,24 +1782,24 @@
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1.3791939508506613E-2</v>
-      </c>
-      <c r="B36">
-        <v>4.2364330230921176E-4</v>
-      </c>
-      <c r="C36">
-        <v>529</v>
-      </c>
-      <c r="D36">
-        <v>1.366242155009452E-2</v>
-      </c>
-      <c r="E36">
-        <v>3.3407194868246101E-4</v>
-      </c>
-      <c r="F36">
-        <v>529</v>
+    <row r="36" x14ac:dyDescent="0.2">
+      <c r="A36" s="0">
+        <v>0.013791939508506613</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.00042364330230921176</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.01366242155009452</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.00033407194868246101</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.011372173913043477</v>
+      </c>
+      <c r="F36" s="0">
+        <v>0.00028635797534573467</v>
       </c>
       <c r="G36">
         <v>1.1372173913043477E-2</v>
@@ -1752,24 +1820,24 @@
         <v>304</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1.2898663516068054E-2</v>
-      </c>
-      <c r="B37">
-        <v>3.4548635258420927E-4</v>
-      </c>
-      <c r="C37">
-        <v>529</v>
-      </c>
-      <c r="D37">
-        <v>1.1226351606805291E-2</v>
-      </c>
-      <c r="E37">
-        <v>2.8106452891486674E-4</v>
-      </c>
-      <c r="F37">
-        <v>529</v>
+    <row r="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="0">
+        <v>0.012898663516068054</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.00034548635258420927</v>
+      </c>
+      <c r="C37" s="0">
+        <v>0.011226351606805291</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.00028106452891486674</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.013141100189035922</v>
+      </c>
+      <c r="F37" s="0">
+        <v>0.00039097078429285362</v>
       </c>
       <c r="G37">
         <v>1.3141100189035922E-2</v>
@@ -1790,24 +1858,24 @@
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1.2053468809073722E-2</v>
-      </c>
-      <c r="B38">
-        <v>3.2631945862375404E-4</v>
-      </c>
-      <c r="C38">
-        <v>529</v>
-      </c>
-      <c r="D38">
-        <v>1.2078137996219283E-2</v>
-      </c>
-      <c r="E38">
-        <v>3.577545564295383E-4</v>
-      </c>
-      <c r="F38">
-        <v>529</v>
+    <row r="38" x14ac:dyDescent="0.2">
+      <c r="A38" s="0">
+        <v>0.012053468809073722</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.00032631945862375404</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.012078137996219283</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.0003577545564295383</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.012032671077504723</v>
+      </c>
+      <c r="F38" s="0">
+        <v>0.00032231611324713005</v>
       </c>
       <c r="G38">
         <v>1.2032671077504723E-2</v>
@@ -1828,24 +1896,24 @@
         <v>306</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>9.9018449905482059E-3</v>
-      </c>
-      <c r="B39">
-        <v>2.8975956366162925E-4</v>
-      </c>
-      <c r="C39">
-        <v>529</v>
-      </c>
-      <c r="D39">
-        <v>1.1558746691871458E-2</v>
-      </c>
-      <c r="E39">
-        <v>3.0006807105684337E-4</v>
-      </c>
-      <c r="F39">
-        <v>529</v>
+    <row r="39" x14ac:dyDescent="0.2">
+      <c r="A39" s="0">
+        <v>0.0099018449905482059</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.00028975956366162925</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0.011558746691871458</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.00030006807105684337</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.011427907372400757</v>
+      </c>
+      <c r="F39" s="0">
+        <v>0.00028606408035371353</v>
       </c>
       <c r="G39">
         <v>1.1427907372400757E-2</v>
@@ -1866,24 +1934,24 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1.0670741020793951E-2</v>
-      </c>
-      <c r="B40">
-        <v>2.9748013535119746E-4</v>
-      </c>
-      <c r="C40">
-        <v>529</v>
-      </c>
-      <c r="D40">
-        <v>1.0732066162570889E-2</v>
-      </c>
-      <c r="E40">
-        <v>2.9043460213142887E-4</v>
-      </c>
-      <c r="F40">
-        <v>529</v>
+    <row r="40" x14ac:dyDescent="0.2">
+      <c r="A40" s="0">
+        <v>0.010670741020793951</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.00029748013535119746</v>
+      </c>
+      <c r="C40" s="0">
+        <v>0.010732066162570889</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.00029043460213142887</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.011227973534971646</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.00032763587131021956</v>
       </c>
       <c r="G40">
         <v>1.1227973534971646E-2</v>
@@ -1904,24 +1972,24 @@
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1.1988669187145558E-2</v>
-      </c>
-      <c r="B41">
-        <v>4.0598407237061733E-4</v>
-      </c>
-      <c r="C41">
-        <v>529</v>
-      </c>
-      <c r="D41">
-        <v>9.0273402646502843E-3</v>
-      </c>
-      <c r="E41">
-        <v>2.0890087861220904E-4</v>
-      </c>
-      <c r="F41">
-        <v>529</v>
+    <row r="41" x14ac:dyDescent="0.2">
+      <c r="A41" s="0">
+        <v>0.011988669187145558</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.00040598407237061733</v>
+      </c>
+      <c r="C41" s="0">
+        <v>0.0090273402646502843</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.00020890087861220904</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.01016242155009452</v>
+      </c>
+      <c r="F41" s="0">
+        <v>0.00028592889825078719</v>
       </c>
       <c r="G41">
         <v>1.016242155009452E-2</v>
@@ -1942,24 +2010,24 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1.1130453686200378E-2</v>
-      </c>
-      <c r="B42">
-        <v>2.5542310500256861E-4</v>
-      </c>
-      <c r="C42">
-        <v>529</v>
-      </c>
-      <c r="D42">
-        <v>1.1492145557655957E-2</v>
-      </c>
-      <c r="E42">
-        <v>3.1881360537879114E-4</v>
-      </c>
-      <c r="F42">
-        <v>529</v>
+    <row r="42" x14ac:dyDescent="0.2">
+      <c r="A42" s="0">
+        <v>0.011130453686200378</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.00025542310500256861</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0.011492145557655957</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.00031881360537879114</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.010001100189035916</v>
+      </c>
+      <c r="F42" s="0">
+        <v>0.00026695279899766224</v>
       </c>
       <c r="G42">
         <v>1.0001100189035916E-2</v>
@@ -1980,24 +2048,24 @@
         <v>310</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>9.3083421550094522E-3</v>
-      </c>
-      <c r="B43">
-        <v>2.4620375389902823E-4</v>
-      </c>
-      <c r="C43">
-        <v>529</v>
-      </c>
-      <c r="D43">
-        <v>8.910807183364837E-3</v>
-      </c>
-      <c r="E43">
-        <v>2.406099850513E-4</v>
-      </c>
-      <c r="F43">
-        <v>529</v>
+    <row r="43" x14ac:dyDescent="0.2">
+      <c r="A43" s="0">
+        <v>0.0093083421550094522</v>
+      </c>
+      <c r="B43" s="0">
+        <v>0.00024620375389902823</v>
+      </c>
+      <c r="C43" s="0">
+        <v>0.008910807183364837</v>
+      </c>
+      <c r="D43" s="0">
+        <v>0.0002406099850513</v>
+      </c>
+      <c r="E43" s="0">
+        <v>0.0087712400756143668</v>
+      </c>
+      <c r="F43" s="0">
+        <v>0.00017405868731172798</v>
       </c>
       <c r="G43">
         <v>8.7712400756143668E-3</v>
@@ -2018,24 +2086,24 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>7.248542533081285E-3</v>
-      </c>
-      <c r="B44">
-        <v>2.1428827440173653E-4</v>
-      </c>
-      <c r="C44">
-        <v>529</v>
-      </c>
-      <c r="D44">
-        <v>9.2182892249527415E-3</v>
-      </c>
-      <c r="E44">
-        <v>2.3142784283581666E-4</v>
-      </c>
-      <c r="F44">
-        <v>529</v>
+    <row r="44" x14ac:dyDescent="0.2">
+      <c r="A44" s="0">
+        <v>0.007248542533081285</v>
+      </c>
+      <c r="B44" s="0">
+        <v>0.00021428827440173653</v>
+      </c>
+      <c r="C44" s="0">
+        <v>0.0092182892249527415</v>
+      </c>
+      <c r="D44" s="0">
+        <v>0.00023142784283581666</v>
+      </c>
+      <c r="E44" s="0">
+        <v>0.010392126654064275</v>
+      </c>
+      <c r="F44" s="0">
+        <v>0.00034401601416680536</v>
       </c>
       <c r="G44">
         <v>1.0392126654064275E-2</v>
@@ -2056,24 +2124,24 @@
         <v>312</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>9.3092835538752354E-3</v>
-      </c>
-      <c r="B45">
-        <v>3.3802971109032204E-4</v>
-      </c>
-      <c r="C45">
-        <v>529</v>
-      </c>
-      <c r="D45">
-        <v>6.7947637051039697E-3</v>
-      </c>
-      <c r="E45">
-        <v>1.7163353011473702E-4</v>
-      </c>
-      <c r="F45">
-        <v>529</v>
+    <row r="45" x14ac:dyDescent="0.2">
+      <c r="A45" s="0">
+        <v>0.0093092835538752354</v>
+      </c>
+      <c r="B45" s="0">
+        <v>0.00033802971109032204</v>
+      </c>
+      <c r="C45" s="0">
+        <v>0.0067947637051039697</v>
+      </c>
+      <c r="D45" s="0">
+        <v>0.00017163353011473702</v>
+      </c>
+      <c r="E45" s="0">
+        <v>0.0083785028355387505</v>
+      </c>
+      <c r="F45" s="0">
+        <v>0.00026284027410001414</v>
       </c>
       <c r="G45">
         <v>8.3785028355387505E-3</v>
@@ -2094,24 +2162,24 @@
         <v>313</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>7.3531928166351611E-3</v>
-      </c>
-      <c r="B46">
-        <v>2.1337089168256727E-4</v>
-      </c>
-      <c r="C46">
-        <v>529</v>
-      </c>
-      <c r="D46">
-        <v>9.1656559546313809E-3</v>
-      </c>
-      <c r="E46">
-        <v>2.4478711777281873E-4</v>
-      </c>
-      <c r="F46">
-        <v>529</v>
+    <row r="46" x14ac:dyDescent="0.2">
+      <c r="A46" s="0">
+        <v>0.0073531928166351611</v>
+      </c>
+      <c r="B46" s="0">
+        <v>0.00021337089168256727</v>
+      </c>
+      <c r="C46" s="0">
+        <v>0.0091656559546313809</v>
+      </c>
+      <c r="D46" s="0">
+        <v>0.00024478711777281873</v>
+      </c>
+      <c r="E46" s="0">
+        <v>0.0078533818525519852</v>
+      </c>
+      <c r="F46" s="0">
+        <v>0.00026383508079567156</v>
       </c>
       <c r="G46">
         <v>7.8533818525519852E-3</v>
@@ -2132,24 +2200,24 @@
         <v>314</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>7.3535160680529305E-3</v>
-      </c>
-      <c r="B47">
-        <v>2.041639195551538E-4</v>
-      </c>
-      <c r="C47">
-        <v>529</v>
-      </c>
-      <c r="D47">
-        <v>7.7222892249527398E-3</v>
-      </c>
-      <c r="E47">
-        <v>2.1286892437329084E-4</v>
-      </c>
-      <c r="F47">
-        <v>529</v>
+    <row r="47" x14ac:dyDescent="0.2">
+      <c r="A47" s="0">
+        <v>0.0073535160680529305</v>
+      </c>
+      <c r="B47" s="0">
+        <v>0.0002041639195551538</v>
+      </c>
+      <c r="C47" s="0">
+        <v>0.0077222892249527398</v>
+      </c>
+      <c r="D47" s="0">
+        <v>0.00021286892437329084</v>
+      </c>
+      <c r="E47" s="0">
+        <v>0.0082530888468809061</v>
+      </c>
+      <c r="F47" s="0">
+        <v>0.00021915068771514027</v>
       </c>
       <c r="G47">
         <v>8.2530888468809061E-3</v>
@@ -2170,24 +2238,24 @@
         <v>315</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>6.3527882797731585E-3</v>
-      </c>
-      <c r="B48">
-        <v>1.6123879810367456E-4</v>
-      </c>
-      <c r="C48">
-        <v>529</v>
-      </c>
-      <c r="D48">
-        <v>7.5631474480151251E-3</v>
-      </c>
-      <c r="E48">
-        <v>1.7625771875187028E-4</v>
-      </c>
-      <c r="F48">
-        <v>529</v>
+    <row r="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="0">
+        <v>0.0063527882797731585</v>
+      </c>
+      <c r="B48" s="0">
+        <v>0.00016123879810367456</v>
+      </c>
+      <c r="C48" s="0">
+        <v>0.0075631474480151251</v>
+      </c>
+      <c r="D48" s="0">
+        <v>0.00017625771875187028</v>
+      </c>
+      <c r="E48" s="0">
+        <v>0.0098442627599243885</v>
+      </c>
+      <c r="F48" s="0">
+        <v>0.00036703730086850162</v>
       </c>
       <c r="G48">
         <v>9.8442627599243885E-3</v>
@@ -2208,24 +2276,24 @@
         <v>316</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>8.1152457466918716E-3</v>
-      </c>
-      <c r="B49">
-        <v>2.5351822758047838E-4</v>
-      </c>
-      <c r="C49">
-        <v>529</v>
-      </c>
-      <c r="D49">
-        <v>5.5131001890359171E-3</v>
-      </c>
-      <c r="E49">
-        <v>1.681626012661728E-4</v>
-      </c>
-      <c r="F49">
-        <v>529</v>
+    <row r="49" x14ac:dyDescent="0.2">
+      <c r="A49" s="0">
+        <v>0.0081152457466918716</v>
+      </c>
+      <c r="B49" s="0">
+        <v>0.00025351822758047838</v>
+      </c>
+      <c r="C49" s="0">
+        <v>0.0055131001890359171</v>
+      </c>
+      <c r="D49" s="0">
+        <v>0.0001681626012661728</v>
+      </c>
+      <c r="E49" s="0">
+        <v>0.0063119470699432873</v>
+      </c>
+      <c r="F49" s="0">
+        <v>0.00017524141563957714</v>
       </c>
       <c r="G49">
         <v>6.3119470699432873E-3</v>
@@ -2246,24 +2314,24 @@
         <v>317</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>6.1467391304347819E-3</v>
-      </c>
-      <c r="B50">
-        <v>1.730199097725281E-4</v>
-      </c>
-      <c r="C50">
-        <v>529</v>
-      </c>
-      <c r="D50">
-        <v>8.533266540642721E-3</v>
-      </c>
-      <c r="E50">
-        <v>3.1751791678989087E-4</v>
-      </c>
-      <c r="F50">
-        <v>529</v>
+    <row r="50" x14ac:dyDescent="0.2">
+      <c r="A50" s="0">
+        <v>0.0061467391304347819</v>
+      </c>
+      <c r="B50" s="0">
+        <v>0.0001730199097725281</v>
+      </c>
+      <c r="C50" s="0">
+        <v>0.008533266540642721</v>
+      </c>
+      <c r="D50" s="0">
+        <v>0.00031751791678989087</v>
+      </c>
+      <c r="E50" s="0">
+        <v>0.0077571001890359157</v>
+      </c>
+      <c r="F50" s="0">
+        <v>0.00016755334082059443</v>
       </c>
       <c r="G50">
         <v>7.7571001890359157E-3</v>
@@ -2284,24 +2352,24 @@
         <v>318</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>4.9358563327032163E-3</v>
-      </c>
-      <c r="B51">
-        <v>1.7107190494878061E-4</v>
-      </c>
-      <c r="C51">
-        <v>529</v>
-      </c>
-      <c r="D51">
-        <v>6.4197599243856346E-3</v>
-      </c>
-      <c r="E51">
-        <v>1.7183047637119023E-4</v>
-      </c>
-      <c r="F51">
-        <v>529</v>
+    <row r="51" x14ac:dyDescent="0.2">
+      <c r="A51" s="0">
+        <v>0.0049358563327032163</v>
+      </c>
+      <c r="B51" s="0">
+        <v>0.00017107190494878061</v>
+      </c>
+      <c r="C51" s="0">
+        <v>0.0064197599243856346</v>
+      </c>
+      <c r="D51" s="0">
+        <v>0.00017183047637119023</v>
+      </c>
+      <c r="E51" s="0">
+        <v>0.0065634593572778815</v>
+      </c>
+      <c r="F51" s="0">
+        <v>0.00042223408588888076</v>
       </c>
       <c r="G51">
         <v>6.5634593572778815E-3</v>
@@ -2322,24 +2390,24 @@
         <v>319</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>5.1562589792060508E-3</v>
-      </c>
-      <c r="B52">
-        <v>1.5251801490774047E-4</v>
-      </c>
-      <c r="C52">
-        <v>529</v>
-      </c>
-      <c r="D52">
-        <v>7.3551039697542543E-3</v>
-      </c>
-      <c r="E52">
-        <v>1.4013020495785635E-4</v>
-      </c>
-      <c r="F52">
-        <v>529</v>
+    <row r="52" x14ac:dyDescent="0.2">
+      <c r="A52" s="0">
+        <v>0.0051562589792060508</v>
+      </c>
+      <c r="B52" s="0">
+        <v>0.00015251801490774047</v>
+      </c>
+      <c r="C52" s="0">
+        <v>0.0073551039697542543</v>
+      </c>
+      <c r="D52" s="0">
+        <v>0.00014013020495785635</v>
+      </c>
+      <c r="E52" s="0">
+        <v>0.0065952495274102067</v>
+      </c>
+      <c r="F52" s="0">
+        <v>0.00026212823257600742</v>
       </c>
       <c r="G52">
         <v>6.5952495274102067E-3</v>
@@ -2360,24 +2428,24 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>4.5305311909262765E-3</v>
-      </c>
-      <c r="B53">
-        <v>1.5981081925565429E-4</v>
-      </c>
-      <c r="C53">
-        <v>529</v>
-      </c>
-      <c r="D53">
-        <v>4.4377315689981094E-3</v>
-      </c>
-      <c r="E53">
-        <v>1.5949636756582849E-4</v>
-      </c>
-      <c r="F53">
-        <v>529</v>
+    <row r="53" x14ac:dyDescent="0.2">
+      <c r="A53" s="0">
+        <v>0.0045305311909262765</v>
+      </c>
+      <c r="B53" s="0">
+        <v>0.00015981081925565429</v>
+      </c>
+      <c r="C53" s="0">
+        <v>0.0044377315689981094</v>
+      </c>
+      <c r="D53" s="0">
+        <v>0.00015949636756582849</v>
+      </c>
+      <c r="E53" s="0">
+        <v>0.0061931739130434774</v>
+      </c>
+      <c r="F53" s="0">
+        <v>0.00023803652590902619</v>
       </c>
       <c r="G53">
         <v>6.1931739130434774E-3</v>
@@ -2398,24 +2466,24 @@
         <v>321</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>5.6463137996219295E-3</v>
-      </c>
-      <c r="B54">
-        <v>2.7571657012302275E-4</v>
-      </c>
-      <c r="C54">
-        <v>529</v>
-      </c>
-      <c r="D54">
-        <v>6.9350699432892248E-3</v>
-      </c>
-      <c r="E54">
-        <v>2.8776771142189841E-4</v>
-      </c>
-      <c r="F54">
-        <v>529</v>
+    <row r="54" x14ac:dyDescent="0.2">
+      <c r="A54" s="0">
+        <v>0.0056463137996219295</v>
+      </c>
+      <c r="B54" s="0">
+        <v>0.00027571657012302275</v>
+      </c>
+      <c r="C54" s="0">
+        <v>0.0069350699432892248</v>
+      </c>
+      <c r="D54" s="0">
+        <v>0.00028776771142189841</v>
+      </c>
+      <c r="E54" s="0">
+        <v>0.0061617221172022701</v>
+      </c>
+      <c r="F54" s="0">
+        <v>0.00015264774421400729</v>
       </c>
       <c r="G54">
         <v>6.1617221172022701E-3</v>
@@ -2436,24 +2504,24 @@
         <v>322</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>4.9868431001890345E-3</v>
-      </c>
-      <c r="B55">
-        <v>1.528369625065942E-4</v>
-      </c>
-      <c r="C55">
-        <v>529</v>
-      </c>
-      <c r="D55">
-        <v>4.9149621928166352E-3</v>
-      </c>
-      <c r="E55">
-        <v>1.362083093132107E-4</v>
-      </c>
-      <c r="F55">
-        <v>529</v>
+    <row r="55" x14ac:dyDescent="0.2">
+      <c r="A55" s="0">
+        <v>0.0049868431001890345</v>
+      </c>
+      <c r="B55" s="0">
+        <v>0.0001528369625065942</v>
+      </c>
+      <c r="C55" s="0">
+        <v>0.0049149621928166352</v>
+      </c>
+      <c r="D55" s="0">
+        <v>0.0001362083093132107</v>
+      </c>
+      <c r="E55" s="0">
+        <v>0.008018576559546315</v>
+      </c>
+      <c r="F55" s="0">
+        <v>0.00039210619274276666</v>
       </c>
       <c r="G55">
         <v>8.018576559546315E-3</v>
@@ -2474,24 +2542,24 @@
         <v>323</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>5.060083175803403E-3</v>
-      </c>
-      <c r="B56">
-        <v>1.3028779292290028E-4</v>
-      </c>
-      <c r="C56">
-        <v>529</v>
-      </c>
-      <c r="D56">
-        <v>5.0720642722117196E-3</v>
-      </c>
-      <c r="E56">
-        <v>1.3131032005902086E-4</v>
-      </c>
-      <c r="F56">
-        <v>529</v>
+    <row r="56" x14ac:dyDescent="0.2">
+      <c r="A56" s="0">
+        <v>0.005060083175803403</v>
+      </c>
+      <c r="B56" s="0">
+        <v>0.00013028779292290028</v>
+      </c>
+      <c r="C56" s="0">
+        <v>0.0050720642722117196</v>
+      </c>
+      <c r="D56" s="0">
+        <v>0.00013131032005902086</v>
+      </c>
+      <c r="E56" s="0">
+        <v>0.0051760075614366722</v>
+      </c>
+      <c r="F56" s="0">
+        <v>0.00025607901128966342</v>
       </c>
       <c r="G56">
         <v>5.1760075614366722E-3</v>
@@ -2512,24 +2580,24 @@
         <v>324</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>4.0129130434782608E-3</v>
-      </c>
-      <c r="B57">
-        <v>1.0599187689970929E-4</v>
-      </c>
-      <c r="C57">
-        <v>529</v>
-      </c>
-      <c r="D57">
-        <v>6.3257637051039716E-3</v>
-      </c>
-      <c r="E57">
-        <v>1.5021295843956672E-4</v>
-      </c>
-      <c r="F57">
-        <v>529</v>
+    <row r="57" x14ac:dyDescent="0.2">
+      <c r="A57" s="0">
+        <v>0.0040129130434782608</v>
+      </c>
+      <c r="B57" s="0">
+        <v>0.00010599187689970929</v>
+      </c>
+      <c r="C57" s="0">
+        <v>0.0063257637051039716</v>
+      </c>
+      <c r="D57" s="0">
+        <v>0.00015021295843956672</v>
+      </c>
+      <c r="E57" s="0">
+        <v>0.0048037977315689975</v>
+      </c>
+      <c r="F57" s="0">
+        <v>0.00015687919345925625</v>
       </c>
       <c r="G57">
         <v>4.8037977315689975E-3</v>
@@ -2550,24 +2618,24 @@
         <v>325</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>4.7738355387523619E-3</v>
-      </c>
-      <c r="B58">
-        <v>2.1409429890356153E-4</v>
-      </c>
-      <c r="C58">
-        <v>529</v>
-      </c>
-      <c r="D58">
-        <v>5.0452608695652186E-3</v>
-      </c>
-      <c r="E58">
-        <v>1.3094889345979408E-4</v>
-      </c>
-      <c r="F58">
-        <v>529</v>
+    <row r="58" x14ac:dyDescent="0.2">
+      <c r="A58" s="0">
+        <v>0.0047738355387523619</v>
+      </c>
+      <c r="B58" s="0">
+        <v>0.00021409429890356153</v>
+      </c>
+      <c r="C58" s="0">
+        <v>0.0050452608695652186</v>
+      </c>
+      <c r="D58" s="0">
+        <v>0.00013094889345979408</v>
+      </c>
+      <c r="E58" s="0">
+        <v>0.0058551663516068046</v>
+      </c>
+      <c r="F58" s="0">
+        <v>0.00024631445479219303</v>
       </c>
       <c r="G58">
         <v>5.8551663516068046E-3</v>
@@ -2588,24 +2656,24 @@
         <v>326</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>4.0820283553875247E-3</v>
-      </c>
-      <c r="B59">
-        <v>1.5080071201801563E-4</v>
-      </c>
-      <c r="C59">
-        <v>529</v>
-      </c>
-      <c r="D59">
-        <v>3.7211247637051036E-3</v>
-      </c>
-      <c r="E59">
-        <v>1.6390939322781734E-4</v>
-      </c>
-      <c r="F59">
-        <v>529</v>
+    <row r="59" x14ac:dyDescent="0.2">
+      <c r="A59" s="0">
+        <v>0.0040820283553875247</v>
+      </c>
+      <c r="B59" s="0">
+        <v>0.00015080071201801563</v>
+      </c>
+      <c r="C59" s="0">
+        <v>0.0037211247637051036</v>
+      </c>
+      <c r="D59" s="0">
+        <v>0.00016390939322781734</v>
+      </c>
+      <c r="E59" s="0">
+        <v>0.0040347126654064263</v>
+      </c>
+      <c r="F59" s="0">
+        <v>0.00016875171096076801</v>
       </c>
       <c r="G59">
         <v>4.0347126654064263E-3</v>
@@ -2626,24 +2694,24 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>2.5763081285444245E-3</v>
-      </c>
-      <c r="B60">
-        <v>1.1462982903358946E-4</v>
-      </c>
-      <c r="C60">
-        <v>529</v>
-      </c>
-      <c r="D60">
-        <v>3.4143421550094522E-3</v>
-      </c>
-      <c r="E60">
-        <v>1.0616942353510902E-4</v>
-      </c>
-      <c r="F60">
-        <v>529</v>
+    <row r="60" x14ac:dyDescent="0.2">
+      <c r="A60" s="0">
+        <v>0.0025763081285444245</v>
+      </c>
+      <c r="B60" s="0">
+        <v>0.00011462982903358946</v>
+      </c>
+      <c r="C60" s="0">
+        <v>0.0034143421550094522</v>
+      </c>
+      <c r="D60" s="0">
+        <v>0.00010616942353510902</v>
+      </c>
+      <c r="E60" s="0">
+        <v>0.0039006370510396983</v>
+      </c>
+      <c r="F60" s="0">
+        <v>0.00016362712834214272</v>
       </c>
       <c r="G60">
         <v>3.9006370510396983E-3</v>
@@ -2664,24 +2732,24 @@
         <v>328</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>3.2966502835538761E-3</v>
-      </c>
-      <c r="B61">
-        <v>1.0570580745128635E-4</v>
-      </c>
-      <c r="C61">
-        <v>529</v>
-      </c>
-      <c r="D61">
-        <v>3.3243364839319464E-3</v>
-      </c>
-      <c r="E61">
-        <v>1.8016588603772299E-4</v>
-      </c>
-      <c r="F61">
-        <v>529</v>
+    <row r="61" x14ac:dyDescent="0.2">
+      <c r="A61" s="0">
+        <v>0.0032966502835538761</v>
+      </c>
+      <c r="B61" s="0">
+        <v>0.00010570580745128635</v>
+      </c>
+      <c r="C61" s="0">
+        <v>0.0033243364839319464</v>
+      </c>
+      <c r="D61" s="0">
+        <v>0.00018016588603772299</v>
+      </c>
+      <c r="E61" s="0">
+        <v>0.0026809943289224959</v>
+      </c>
+      <c r="F61" s="0">
+        <v>0.00010751170348679306</v>
       </c>
       <c r="G61">
         <v>2.6809943289224959E-3</v>
@@ -2702,24 +2770,24 @@
         <v>329</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2.4040170132325141E-3</v>
-      </c>
-      <c r="B62">
-        <v>1.0701296727433657E-4</v>
-      </c>
-      <c r="C62">
-        <v>529</v>
-      </c>
-      <c r="D62">
-        <v>3.771671077504726E-3</v>
-      </c>
-      <c r="E62">
-        <v>1.271631880488198E-4</v>
-      </c>
-      <c r="F62">
-        <v>529</v>
+    <row r="62" x14ac:dyDescent="0.2">
+      <c r="A62" s="0">
+        <v>0.0024040170132325141</v>
+      </c>
+      <c r="B62" s="0">
+        <v>0.00010701296727433657</v>
+      </c>
+      <c r="C62" s="0">
+        <v>0.003771671077504726</v>
+      </c>
+      <c r="D62" s="0">
+        <v>0.0001271631880488198</v>
+      </c>
+      <c r="E62" s="0">
+        <v>0.0048262911153119092</v>
+      </c>
+      <c r="F62" s="0">
+        <v>0.00026499691074147842</v>
       </c>
       <c r="G62">
         <v>4.8262911153119092E-3</v>
